--- a/column_labels.xlsx
+++ b/column_labels.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="195">
   <si>
     <t>column_name</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>pid</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
   <si>
     <t>name</t>
@@ -601,8 +604,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,10 +617,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -637,16 +640,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,17 +657,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -673,10 +687,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -714,69 +728,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -800,54 +816,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -857,7 +872,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -866,7 +881,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -875,7 +890,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -883,10 +898,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -915,7 +930,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -928,13 +943,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -952,14 +966,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,965 +988,1195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B24" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B30" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B36" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+      <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B41" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+      <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B43" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B44" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+      <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B45" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+      <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B46" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+      <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B47" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+      <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B48" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B49" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+      <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B50" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+      <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+      <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B52" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+      <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B53" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+      <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B54" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+      <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B55" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+      <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+      <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+      <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+      <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B59" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+      <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B60" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+      <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+      <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+      <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+      <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+      <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B65" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+      <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B66" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+      <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B67" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+      <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B68" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+      <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B69" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+      <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B70" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
+      <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B71" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
+      <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B72" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
+      <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B73" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+      <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B74" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+      <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B75" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+      <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B76" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+      <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B77" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+      <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B78" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+      <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B79" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+      <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B80" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
+      <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B81" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
+      <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B82" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
+      <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B83" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
+      <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B84" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
+      <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B85" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
+      <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B86" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
+      <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B87" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
+      <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B88" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
+      <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B89" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
+      <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B90" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
+      <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B91" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
+      <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B92" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
+      <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B93" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
+      <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B94" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
+      <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B95" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
+      <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B96" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
+      <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B97" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
+      <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B98" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
+      <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B99" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
+      <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B100" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
+      <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B101" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
+      <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B102" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
+      <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B103" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
+      <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B104" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
+      <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B105" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
+      <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B106" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
+      <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B107" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
+      <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B108" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
+      <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B109" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
+      <c r="A110" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B110" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
+      <c r="A111" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B111" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
+      <c r="A112" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B112" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
+      <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B113" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
+      <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B114" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
+      <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B115" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
+      <c r="A116" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B116" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
+      <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B117" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
+      <c r="A118" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B118" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
+      <c r="A119" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B119" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
+      <c r="A120" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B120" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
+      <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B121" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
+      <c r="A122" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B122" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
+      <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B123" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
+      <c r="A124" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B124" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
+      <c r="A125" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B125" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
+      <c r="A126" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B126" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
+      <c r="A127" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B127" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
+      <c r="A128" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B128" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
+      <c r="A129" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B129" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
+      <c r="A130" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B130" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
+      <c r="A131" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B131" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
+      <c r="A132" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B132" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
+      <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B133" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
+      <c r="A134" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B134" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
+      <c r="A135" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B135" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
+      <c r="A136" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B136" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
+      <c r="A137" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B137" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
+      <c r="A138" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B138" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
+      <c r="A139" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B139" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
+      <c r="A140" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B140" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
+      <c r="A141" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B141" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
+      <c r="A142" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B142" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
+      <c r="A143" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B143" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
+      <c r="A144" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B144" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
+      <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B145" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
+      <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B146" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
+      <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B147" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
+      <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B148" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
+      <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B149" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
+      <c r="A150" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B150" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
+      <c r="A151" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B151" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
+      <c r="A152" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B152" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
+      <c r="A153" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B153" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
+      <c r="A154" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B154" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
+      <c r="A155" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B155" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
+      <c r="A156" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B156" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
+      <c r="A157" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B157" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
+      <c r="A158" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B158" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
+      <c r="A159" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="B159" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
+      <c r="A160" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B160" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
+      <c r="A161" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B161" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
+      <c r="A162" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="B162" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
+      <c r="A163" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="B163" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
+      <c r="A164" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B164" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
+      <c r="A165" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B165" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
+      <c r="A166" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B166" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
+      <c r="A167" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B167" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
+      <c r="A168" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B168" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
+      <c r="A169" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B169" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
+      <c r="A170" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B170" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
+      <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B171" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
+      <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B172" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
+      <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B173" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
+      <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B174" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
+      <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="B175" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
+      <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B176" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
+      <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B177" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
+      <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B178" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
+      <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B179" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
+      <c r="A180" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B180" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
+      <c r="A181" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B181" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
+      <c r="A182" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="B182" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
+      <c r="A183" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B183" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
+      <c r="A184" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="B184" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
+      <c r="A185" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="B185" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
+      <c r="A186" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B186" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
+      <c r="A187" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B187" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
+      <c r="A188" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B188" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
+      <c r="A189" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B189" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
+      <c r="A190" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B190" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
+      <c r="A191" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B191" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
+      <c r="A192" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="B192" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
+      <c r="A193" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/column_labels.xlsx
+++ b/column_labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="195">
   <si>
     <t>column_name</t>
   </si>
@@ -1218,13 +1218,17 @@
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="2" t="s">
@@ -1242,13 +1246,17 @@
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="2" t="s">
@@ -1302,7 +1310,9 @@
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="2" t="s">
@@ -1316,25 +1326,33 @@
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="2" t="s">
@@ -1364,13 +1382,17 @@
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="2" t="s">
@@ -1408,55 +1430,73 @@
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="2" t="s">
@@ -1732,97 +1772,129 @@
       <c r="A119" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
       <c r="A120" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
       <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
       <c r="A122" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
       <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
       <c r="A124" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
       <c r="A125" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
       <c r="A126" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
       <c r="A127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
       <c r="A128" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
       <c r="A129" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
       <c r="A130" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
       <c r="A131" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
       <c r="A134" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
       <c r="A135" s="2" t="s">

--- a/column_labels.xlsx
+++ b/column_labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="196">
   <si>
     <t>column_name</t>
   </si>
@@ -479,6 +479,11 @@
   </si>
   <si>
     <t>completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja
+ja
+</t>
   </si>
   <si>
     <t>completeness over time</t>
@@ -1262,49 +1267,65 @@
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="2" t="s">
@@ -1502,271 +1523,361 @@
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
       <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
       <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
       <c r="A116" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
       <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
       <c r="A118" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
       <c r="A119" s="2" t="s">
@@ -1900,353 +2011,409 @@
       <c r="A135" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
       <c r="A136" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
       <c r="A137" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
       <c r="A138" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="2"/>
+      <c r="B138" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
       <c r="A139" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="2"/>
+      <c r="B139" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="2"/>
+      <c r="B140" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
       <c r="A144" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="2"/>
+      <c r="B144" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
       <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="2"/>
+      <c r="B147" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="2"/>
+      <c r="B148" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
       <c r="A150" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="2"/>
+      <c r="B150" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
       <c r="A151" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
       <c r="A152" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="2"/>
+      <c r="B152" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
       <c r="A153" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
       <c r="A154" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
       <c r="A155" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
       <c r="A156" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
       <c r="A157" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
       <c r="A158" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
       <c r="A159" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
       <c r="A160" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
       <c r="A161" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
       <c r="A162" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B162" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
       <c r="A163" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B163" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B164" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
       <c r="A165" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B165" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
       <c r="A166" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B166" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
       <c r="A167" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B167" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
       <c r="A168" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B168" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B169" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
       <c r="A170" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B170" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B171" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
       <c r="A172" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B172" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
       <c r="A173" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B173" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
       <c r="A174" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B174" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B175" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B176" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B177" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
       <c r="A178" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B178" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
       <c r="A179" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B179" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B180" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B181" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
       <c r="A182" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B182" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
       <c r="A183" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B183" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
       <c r="A184" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B184" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
       <c r="A185" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B185" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
       <c r="A186" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B186" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
       <c r="A187" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B187" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
       <c r="A188" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B188" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
       <c r="A189" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B189" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
       <c r="A190" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B190" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
       <c r="A191" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B191" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
       <c r="A192" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B192" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B193" s="2"/>
     </row>

--- a/column_labels.xlsx
+++ b/column_labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="196">
   <si>
     <t>column_name</t>
   </si>
@@ -981,7 +981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="28.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -2235,165 +2235,213 @@
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B163" s="2"/>
+      <c r="B163" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
+      <c r="B164" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B165" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
+      <c r="B165" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B166" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
+      <c r="B166" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B167" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
+      <c r="B167" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B168" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
+      <c r="B168" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B169" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
+      <c r="B169" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B170" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
+      <c r="B170" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B171" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
+      <c r="B171" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B172" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
+      <c r="B172" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B173" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
+      <c r="B173" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B174" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
+      <c r="B174" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B175" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
+      <c r="B175" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B176" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
+      <c r="B176" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B177" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
+      <c r="B177" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B178" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
+      <c r="B178" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
+      <c r="B179" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
+      <c r="B180" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
+      <c r="B181" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B182" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
+      <c r="B182" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B183" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
+      <c r="B183" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B184" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
+      <c r="B184" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B185" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
+      <c r="B185" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B186" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
+      <c r="B186" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B187" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B188" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B189" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="2" t="s">
         <v>192</v>
       </c>

--- a/column_labels.xlsx
+++ b/column_labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="196">
   <si>
     <t>column_name</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>RWD type</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>network type</t>
@@ -984,7 +981,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="72.7192857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="3" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -1103,12 +1100,12 @@
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1116,7 +1113,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -1124,7 +1121,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
@@ -1132,7 +1129,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -1156,7 +1153,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -1164,7 +1161,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -1172,7 +1169,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1180,7 +1177,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
@@ -1188,7 +1185,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1196,7 +1193,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -1204,19 +1201,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
@@ -1224,19 +1221,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -1244,7 +1241,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
@@ -1252,7 +1249,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
@@ -1260,7 +1257,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>8</v>
@@ -1268,259 +1265,259 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>8</v>
@@ -1528,7 +1525,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
@@ -1536,7 +1533,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>8</v>
@@ -1544,7 +1541,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>8</v>
@@ -1552,7 +1549,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>8</v>
@@ -1560,7 +1557,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>8</v>
@@ -1568,7 +1565,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>8</v>
@@ -1576,7 +1573,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
@@ -1584,7 +1581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
@@ -1592,7 +1589,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
@@ -1600,7 +1597,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>8</v>
@@ -1608,7 +1605,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>8</v>
@@ -1616,7 +1613,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>8</v>
@@ -1624,7 +1621,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>8</v>
@@ -1632,7 +1629,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>8</v>
@@ -1640,7 +1637,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>8</v>
@@ -1648,7 +1645,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>8</v>
@@ -1656,7 +1653,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>8</v>
@@ -1664,7 +1661,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>8</v>
@@ -1672,7 +1669,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>8</v>
@@ -1680,7 +1677,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>8</v>
@@ -1688,7 +1685,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>8</v>
@@ -1696,7 +1693,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>8</v>
@@ -1704,7 +1701,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>8</v>
@@ -1712,7 +1709,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>8</v>
@@ -1720,7 +1717,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>8</v>
@@ -1728,7 +1725,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>8</v>
@@ -1736,7 +1733,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>8</v>
@@ -1744,7 +1741,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>8</v>
@@ -1752,7 +1749,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
@@ -1760,7 +1757,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>8</v>
@@ -1768,7 +1765,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>8</v>
@@ -1776,7 +1773,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
@@ -1784,7 +1781,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>8</v>
@@ -1800,7 +1797,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>8</v>
@@ -1808,7 +1805,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
@@ -1816,7 +1813,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
@@ -1824,7 +1821,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
@@ -1832,7 +1829,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>8</v>
@@ -1840,7 +1837,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
@@ -1848,7 +1845,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>8</v>
@@ -1856,7 +1853,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>8</v>
@@ -1864,7 +1861,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>8</v>
@@ -1872,7 +1869,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
@@ -1880,7 +1877,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>8</v>
@@ -1888,7 +1885,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>8</v>
@@ -1896,7 +1893,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>8</v>
@@ -1904,7 +1901,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>8</v>
@@ -1912,7 +1909,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>8</v>
@@ -1920,7 +1917,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
@@ -1928,7 +1925,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>8</v>
@@ -1936,7 +1933,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>8</v>
@@ -1944,7 +1941,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>8</v>
@@ -1952,7 +1949,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>8</v>
@@ -1960,7 +1957,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>8</v>
@@ -1968,7 +1965,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
       <c r="A126" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
@@ -1976,7 +1973,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
       <c r="A127" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>8</v>
@@ -1984,7 +1981,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>8</v>
@@ -1992,7 +1989,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>8</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>8</v>
@@ -2008,7 +2005,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>8</v>
@@ -2016,7 +2013,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>8</v>
@@ -2024,7 +2021,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>8</v>
@@ -2032,7 +2029,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>8</v>
@@ -2040,7 +2037,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>8</v>
@@ -2048,7 +2045,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>8</v>
@@ -2056,7 +2053,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>8</v>
@@ -2064,7 +2061,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>8</v>
@@ -2072,7 +2069,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
       <c r="A139" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>8</v>
@@ -2080,7 +2077,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>8</v>
@@ -2088,7 +2085,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>8</v>
@@ -2096,7 +2093,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>8</v>
@@ -2104,7 +2101,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>8</v>
@@ -2112,7 +2109,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>8</v>
@@ -2120,7 +2117,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>8</v>
@@ -2128,7 +2125,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>8</v>
@@ -2136,7 +2133,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
       <c r="A147" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>8</v>
@@ -2144,7 +2141,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>8</v>
@@ -2152,7 +2149,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>8</v>
@@ -2160,7 +2157,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>8</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>8</v>
@@ -2176,7 +2173,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>8</v>
@@ -2184,15 +2181,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
       <c r="A153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>8</v>
@@ -2200,7 +2197,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
@@ -2208,7 +2205,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>8</v>
@@ -2216,7 +2213,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>8</v>
@@ -2224,7 +2221,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>8</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>8</v>
@@ -2240,7 +2237,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>8</v>
@@ -2248,7 +2245,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>8</v>
@@ -2256,7 +2253,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
       <c r="A162" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>8</v>
@@ -2264,7 +2261,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>8</v>
@@ -2272,7 +2269,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>8</v>
@@ -2280,7 +2277,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>8</v>
@@ -2288,7 +2285,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>8</v>
@@ -2296,7 +2293,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>8</v>
@@ -2304,7 +2301,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>8</v>
@@ -2312,7 +2309,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>8</v>
@@ -2320,7 +2317,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>8</v>
@@ -2328,7 +2325,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>8</v>
@@ -2336,7 +2333,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>8</v>
@@ -2344,7 +2341,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>8</v>
@@ -2352,7 +2349,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>8</v>
@@ -2360,7 +2357,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>8</v>
@@ -2368,7 +2365,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>8</v>
@@ -2376,7 +2373,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>8</v>
@@ -2384,7 +2381,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>8</v>
@@ -2392,7 +2389,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>8</v>
@@ -2400,7 +2397,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>8</v>
@@ -2408,7 +2405,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>8</v>
@@ -2416,7 +2413,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>8</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>8</v>
@@ -2432,7 +2429,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>8</v>
@@ -2440,7 +2437,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>8</v>
@@ -2448,7 +2445,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>8</v>
@@ -2456,7 +2453,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>8</v>
@@ -2464,7 +2461,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>8</v>
@@ -2472,7 +2469,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>8</v>
@@ -2480,7 +2477,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>8</v>
@@ -2488,7 +2485,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>8</v>
@@ -2496,7 +2493,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
       <c r="A192" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>8</v>
@@ -2504,7 +2501,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
       <c r="A193" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>8</v>
